--- a/storage/app/public/input data/caseloads/sahel_central.xlsx
+++ b/storage/app/public/input data/caseloads/sahel_central.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\database\public\uploads\caseloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/caseloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DA649-DE2C-47BD-A090-11F99965BCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{0C9DA649-DE2C-47BD-A090-11F99965BCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{433DD0D2-D236-4782-8B57-3B904EEE74FD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="52">
   <si>
     <t>Country</t>
   </si>
@@ -84,9 +92,6 @@
     <t>NE05</t>
   </si>
   <si>
-    <t>Tilalberi</t>
-  </si>
-  <si>
     <t>NE06</t>
   </si>
   <si>
@@ -175,13 +180,32 @@
   </si>
   <si>
     <t>Tillaberi</t>
+  </si>
+  <si>
+    <t>Centre-Est</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>HRP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,19 +231,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,19 +298,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J33" totalsRowShown="0">
-  <autoFilter ref="A1:J33" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:K50" totalsRowShown="0">
+  <autoFilter ref="A1:K50" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K50">
+    <sortCondition ref="C1:C50"/>
+  </sortState>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{594076F3-52C5-4F4D-87D8-6757CB8DC572}" name="Country"/>
     <tableColumn id="2" xr3:uid="{CBF2065D-E791-43E6-ABC3-D697932CF83D}" name="Country_Iso3"/>
     <tableColumn id="3" xr3:uid="{BC3628CE-440E-49D9-81CC-C6E40657BE21}" name="Admin1_name"/>
     <tableColumn id="4" xr3:uid="{996E4742-C7CE-43D3-8D01-74778BF1B7E1}" name="Admin1_pcode"/>
     <tableColumn id="5" xr3:uid="{6FA592D9-4C73-49DE-AF4B-5C9CEAC53494}" name="Total_population"/>
     <tableColumn id="6" xr3:uid="{230C7462-DD32-43CC-9F80-0292F57539E9}" name="People_affected"/>
-    <tableColumn id="7" xr3:uid="{9FB4AA86-862C-4650-9E74-E6F8AB7C5B02}" name="People_in_need"/>
-    <tableColumn id="8" xr3:uid="{6A669401-7064-442C-B28C-63A9FF0888F1}" name="People_targeted"/>
+    <tableColumn id="7" xr3:uid="{9FB4AA86-862C-4650-9E74-E6F8AB7C5B02}" name="People_in_need" dataDxfId="2" dataCellStyle="Milliers [0]"/>
+    <tableColumn id="8" xr3:uid="{6A669401-7064-442C-B28C-63A9FF0888F1}" name="People_targeted" dataDxfId="1" dataCellStyle="Milliers [0]"/>
     <tableColumn id="9" xr3:uid="{025746CC-F599-4DAC-A9D7-4C294979CDD2}" name="People_reached"/>
     <tableColumn id="10" xr3:uid="{FEA66360-662B-40D7-A391-58CB1ADA1AFF}" name="Date" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{DA39CDEA-724D-42E4-ACAA-80E7E9EF5DDE}" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +603,7 @@
     <col min="10" max="10" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +634,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -581,10 +651,10 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1551147.4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>833153.16850390995</v>
       </c>
       <c r="I2" t="s">
@@ -593,8 +663,11 @@
       <c r="J2" s="1">
         <v>42735</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -607,10 +680,10 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>2500000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>1000000</v>
       </c>
       <c r="I3" t="s">
@@ -619,39 +692,45 @@
       <c r="J3" s="1">
         <v>42735</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>2000000</v>
-      </c>
-      <c r="H4">
-        <v>1500000</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>860625</v>
+      </c>
+      <c r="H4" s="2">
+        <v>477872</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -659,11 +738,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
-        <v>860625</v>
-      </c>
-      <c r="H5">
-        <v>477872</v>
+      <c r="G5" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1360000</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -671,91 +750,103 @@
       <c r="J5" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>954000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>702000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>3700000</v>
-      </c>
-      <c r="H6">
-        <v>1360000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4100000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1560000</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="1">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43465</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>1900000</v>
-      </c>
-      <c r="H8">
-        <v>1500000</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1475690</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1251427</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="1">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43767</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -763,20 +854,23 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="G9">
-        <v>954000</v>
-      </c>
-      <c r="H9">
-        <v>702000</v>
+      <c r="G9" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3000000</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43767</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -784,77 +878,83 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>4100000</v>
-      </c>
-      <c r="H10">
-        <v>1560000</v>
+        <v>31</v>
+      </c>
+      <c r="G10" s="2">
+        <v>74350.649999999994</v>
+      </c>
+      <c r="H10" s="2">
+        <v>29936.862117000001</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="1">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43878</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="G11" s="2">
+        <v>345156.00000000006</v>
+      </c>
+      <c r="H11" s="2">
+        <v>258867</v>
       </c>
       <c r="J11" s="1">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>2300000</v>
-      </c>
-      <c r="H12">
-        <v>1800000</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="2">
+        <v>200190</v>
+      </c>
+      <c r="H12" s="2">
+        <v>131370</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="1">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43878</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -862,129 +962,132 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1475690</v>
-      </c>
-      <c r="H13">
-        <v>1251427</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="G13" s="2">
+        <v>441204.94795031624</v>
+      </c>
+      <c r="H13" s="2">
+        <v>325305.75405525905</v>
       </c>
       <c r="J13" s="1">
-        <v>43767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44245</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>3900000</v>
-      </c>
-      <c r="H14">
-        <v>3000000</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="G14" s="2">
+        <v>210665.58265954713</v>
+      </c>
+      <c r="H14" s="2">
+        <v>200960.90136715423</v>
       </c>
       <c r="J14" s="1">
-        <v>43767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44245</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2">
+        <v>837770</v>
+      </c>
+      <c r="H15" s="2">
+        <v>723741</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43878</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>2300000</v>
-      </c>
-      <c r="H16">
-        <v>1600000</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="2">
+        <v>907915.77231944352</v>
+      </c>
+      <c r="H16" s="2">
+        <v>812392.76</v>
       </c>
       <c r="J16" s="1">
-        <v>43767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44245</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G17" s="2">
+        <v>198900</v>
+      </c>
+      <c r="H17" s="2">
+        <v>133600</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="1">
-        <v>43767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43878</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -992,42 +1095,42 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18">
-        <v>837770</v>
-      </c>
-      <c r="H18">
-        <v>723741</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="G18" s="2">
+        <v>608279.9310292335</v>
+      </c>
+      <c r="H18" s="2">
+        <v>446428.44738497975</v>
       </c>
       <c r="J18" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44245</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19">
-        <v>697545</v>
-      </c>
-      <c r="H19">
-        <v>697545</v>
+        <v>33</v>
+      </c>
+      <c r="G19" s="2">
+        <v>684785.50783986005</v>
+      </c>
+      <c r="H19" s="2">
+        <v>600640.76653599995</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1035,51 +1138,54 @@
       <c r="J19" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20">
-        <v>258450</v>
-      </c>
-      <c r="H20">
-        <v>155820</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="G20" s="2">
+        <v>697639.17981515499</v>
+      </c>
+      <c r="H20" s="2">
+        <v>570618.19385212369</v>
       </c>
       <c r="J20" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>198900</v>
-      </c>
-      <c r="H21">
-        <v>133600</v>
+        <v>35</v>
+      </c>
+      <c r="G21" s="2">
+        <v>230365.29517348</v>
+      </c>
+      <c r="H21" s="2">
+        <v>163931.20849700001</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1087,34 +1193,37 @@
       <c r="J21" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22">
-        <v>200190</v>
-      </c>
-      <c r="H22">
-        <v>131370</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="G22" s="2">
+        <v>443658.70589092915</v>
+      </c>
+      <c r="H22" s="2">
+        <v>350499.51471274334</v>
       </c>
       <c r="J22" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1122,16 +1231,16 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23">
-        <v>74350.649999999994</v>
-      </c>
-      <c r="H23">
-        <v>29936.862117000001</v>
+        <v>37</v>
+      </c>
+      <c r="G23" s="2">
+        <v>29657.894199999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>21996</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1139,8 +1248,11 @@
       <c r="J23" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1148,25 +1260,25 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24">
-        <v>684785.50783986005</v>
-      </c>
-      <c r="H24">
-        <v>600640.76653599995</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="G24" s="2">
+        <v>79151.403774561011</v>
+      </c>
+      <c r="H24" s="2">
+        <v>51948.419291003331</v>
       </c>
       <c r="J24" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1174,16 +1286,16 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25">
-        <v>230365.29517348</v>
-      </c>
-      <c r="H25">
-        <v>163931.20849700001</v>
+        <v>39</v>
+      </c>
+      <c r="G25" s="2">
+        <v>278384.26504749001</v>
+      </c>
+      <c r="H25" s="2">
+        <v>214025.14293900001</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1191,8 +1303,11 @@
       <c r="J25" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1200,25 +1315,25 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26">
-        <v>29657.894199999999</v>
-      </c>
-      <c r="H26">
-        <v>21996</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="G26" s="2">
+        <v>295615.90207045397</v>
+      </c>
+      <c r="H26" s="2">
+        <v>225123.47165636317</v>
       </c>
       <c r="J26" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1226,16 +1341,16 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27">
-        <v>278384.26504749001</v>
-      </c>
-      <c r="H27">
-        <v>214025.14293900001</v>
+        <v>41</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1544073.8273807999</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1349529.823082</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -1243,8 +1358,11 @@
       <c r="J27" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1252,42 +1370,42 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28">
-        <v>1544073.8273807999</v>
-      </c>
-      <c r="H28">
-        <v>1349529.823082</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
+      <c r="G28" s="2">
+        <v>1674208.8003478548</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1335324.0792901064</v>
       </c>
       <c r="J28" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29">
-        <v>500255.07213143999</v>
-      </c>
-      <c r="H29">
-        <v>384811.64882499998</v>
+        <v>25</v>
+      </c>
+      <c r="G29" s="2">
+        <v>258450</v>
+      </c>
+      <c r="H29" s="2">
+        <v>155820</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -1295,51 +1413,54 @@
       <c r="J29" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30">
-        <v>298023.95229782001</v>
-      </c>
-      <c r="H30">
-        <v>223598.439678</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="G30" s="2">
+        <v>544466.80000000005</v>
+      </c>
+      <c r="H30" s="2">
+        <v>412054.51049999997</v>
       </c>
       <c r="J30" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31">
-        <v>692455.84950133995</v>
-      </c>
-      <c r="H31">
-        <v>630388.06293060002</v>
+        <v>23</v>
+      </c>
+      <c r="G31" s="2">
+        <v>697545</v>
+      </c>
+      <c r="H31" s="2">
+        <v>697545</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -1347,57 +1468,541 @@
       <c r="J31" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32">
-        <v>383942</v>
-      </c>
-      <c r="H32">
-        <v>231155</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>821239.99341135425</v>
+      </c>
+      <c r="H32" s="2">
+        <v>722867.76958658011</v>
       </c>
       <c r="J32" s="1">
-        <v>43878</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <v>580990</v>
-      </c>
-      <c r="H33">
-        <v>381851</v>
+        <v>43</v>
+      </c>
+      <c r="G33" s="2">
+        <v>500255.07213143999</v>
+      </c>
+      <c r="H33" s="2">
+        <v>384811.64882499998</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="1">
         <v>43878</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1228524.6507884786</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1035037.6175668903</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="2">
+        <v>298023.95229782001</v>
+      </c>
+      <c r="H35" s="2">
+        <v>223598.439678</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1">
+        <v>43878</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2">
+        <v>145111.14614263049</v>
+      </c>
+      <c r="H36" s="2">
+        <v>111082.31691410438</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1">
+        <v>42735</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1900000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="1">
+        <v>43100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1">
+        <v>43465</v>
+      </c>
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1">
+        <v>43767</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="2">
+        <v>383942</v>
+      </c>
+      <c r="H41" s="2">
+        <v>231155</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1">
+        <v>43878</v>
+      </c>
+      <c r="K41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2">
+        <v>816928</v>
+      </c>
+      <c r="H42" s="2">
+        <v>242921</v>
+      </c>
+      <c r="J42" s="1">
+        <v>44221</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1">
+        <v>42735</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1">
+        <v>43100</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="1">
+        <v>43465</v>
+      </c>
+      <c r="K45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1">
+        <v>43767</v>
+      </c>
+      <c r="K46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="2">
+        <v>580990</v>
+      </c>
+      <c r="H47" s="2">
+        <v>381851</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="1">
+        <v>43878</v>
+      </c>
+      <c r="K47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="2">
+        <v>529795</v>
+      </c>
+      <c r="H48" s="2">
+        <v>405259</v>
+      </c>
+      <c r="J48" s="1">
+        <v>44221</v>
+      </c>
+      <c r="K48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="2">
+        <v>692455.84950133995</v>
+      </c>
+      <c r="H49" s="2">
+        <v>630388.06293060002</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1">
+        <v>43878</v>
+      </c>
+      <c r="K49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1008202.9918570882</v>
+      </c>
+      <c r="H50" s="2">
+        <v>806562.39348567056</v>
+      </c>
+      <c r="J50" s="1">
+        <v>44257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1406,4 +2011,272 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+    <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d04cdad-faad-4bbc-9725-fbca26071bed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C74CA4-B4C0-4E77-B3A3-0DA6B2178F5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B72552-6390-4287-92CD-7B139DC9BC6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908DC7EC-FCAA-4AC1-954A-A728EDD1DD1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <ds:schemaRef ds:uri="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>